--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H2">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I2">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J2">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.865470629309421</v>
+        <v>11.69390033333333</v>
       </c>
       <c r="N2">
-        <v>9.865470629309421</v>
+        <v>35.081701</v>
       </c>
       <c r="O2">
-        <v>0.1972993815302521</v>
+        <v>0.2143852009224814</v>
       </c>
       <c r="P2">
-        <v>0.1972993815302521</v>
+        <v>0.2308343738855075</v>
       </c>
       <c r="Q2">
-        <v>74.38606347412639</v>
+        <v>247.5588799731051</v>
       </c>
       <c r="R2">
-        <v>74.38606347412639</v>
+        <v>2228.029919757946</v>
       </c>
       <c r="S2">
-        <v>0.03284745018276393</v>
+        <v>0.06598134686793222</v>
       </c>
       <c r="T2">
-        <v>0.03284745018276393</v>
+        <v>0.08533969362160586</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H3">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I3">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J3">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.6236749744037</v>
+        <v>31.143184</v>
       </c>
       <c r="N3">
-        <v>28.6236749744037</v>
+        <v>93.429552</v>
       </c>
       <c r="O3">
-        <v>0.5724443953839152</v>
+        <v>0.5709504586911971</v>
       </c>
       <c r="P3">
-        <v>0.5724443953839152</v>
+        <v>0.6147578801359564</v>
       </c>
       <c r="Q3">
-        <v>215.8237131823279</v>
+        <v>659.2985684904213</v>
       </c>
       <c r="R3">
-        <v>215.8237131823279</v>
+        <v>5933.687116413791</v>
       </c>
       <c r="S3">
-        <v>0.09530358693441944</v>
+        <v>0.1757214588376861</v>
       </c>
       <c r="T3">
-        <v>0.09530358693441944</v>
+        <v>0.2272765890936672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H4">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I4">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J4">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>11.5133964863478</v>
+        <v>0.04829733333333333</v>
       </c>
       <c r="N4">
-        <v>11.5133964863478</v>
+        <v>0.144892</v>
       </c>
       <c r="O4">
-        <v>0.2302562230858325</v>
+        <v>0.0008854388369611889</v>
       </c>
       <c r="P4">
-        <v>0.2302562230858325</v>
+        <v>0.0009533760663720083</v>
       </c>
       <c r="Q4">
-        <v>86.81149374585907</v>
+        <v>1.022450457492444</v>
       </c>
       <c r="R4">
-        <v>86.81149374585907</v>
+        <v>9.202054117431999</v>
       </c>
       <c r="S4">
-        <v>0.0383342804139686</v>
+        <v>0.0002725115669387992</v>
       </c>
       <c r="T4">
-        <v>0.0383342804139686</v>
+        <v>0.000352464063479183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.9612231525266</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H5">
-        <v>11.9612231525266</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I5">
-        <v>0.264105693191005</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J5">
-        <v>0.264105693191005</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.865470629309421</v>
+        <v>11.660829</v>
       </c>
       <c r="N5">
-        <v>9.865470629309421</v>
+        <v>23.321658</v>
       </c>
       <c r="O5">
-        <v>0.1972993815302521</v>
+        <v>0.2137789015493603</v>
       </c>
       <c r="P5">
-        <v>0.1972993815302521</v>
+        <v>0.1534543699121641</v>
       </c>
       <c r="Q5">
-        <v>118.003095701867</v>
+        <v>246.858762646478</v>
       </c>
       <c r="R5">
-        <v>118.003095701867</v>
+        <v>1481.152575878868</v>
       </c>
       <c r="S5">
-        <v>0.05210788992520381</v>
+        <v>0.06579474607146131</v>
       </c>
       <c r="T5">
-        <v>0.05210788992520381</v>
+        <v>0.056732230528613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H6">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I6">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J6">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6236749744037</v>
+        <v>11.69390033333333</v>
       </c>
       <c r="N6">
-        <v>28.6236749744037</v>
+        <v>35.081701</v>
       </c>
       <c r="O6">
-        <v>0.5724443953839152</v>
+        <v>0.2143852009224814</v>
       </c>
       <c r="P6">
-        <v>0.5724443953839152</v>
+        <v>0.2308343738855075</v>
       </c>
       <c r="Q6">
-        <v>342.3741638142337</v>
+        <v>151.5960676284957</v>
       </c>
       <c r="R6">
-        <v>342.3741638142337</v>
+        <v>1364.364608656462</v>
       </c>
       <c r="S6">
-        <v>0.1511858238561747</v>
+        <v>0.040404580611679</v>
       </c>
       <c r="T6">
-        <v>0.1511858238561747</v>
+        <v>0.05225892913662224</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H7">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I7">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J7">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.5133964863478</v>
+        <v>31.143184</v>
       </c>
       <c r="N7">
-        <v>11.5133964863478</v>
+        <v>93.429552</v>
       </c>
       <c r="O7">
-        <v>0.2302562230858325</v>
+        <v>0.5709504586911971</v>
       </c>
       <c r="P7">
-        <v>0.2302562230858325</v>
+        <v>0.6147578801359564</v>
       </c>
       <c r="Q7">
-        <v>137.7143046167217</v>
+        <v>403.7304999404693</v>
       </c>
       <c r="R7">
-        <v>137.7143046167217</v>
+        <v>3633.574499464224</v>
       </c>
       <c r="S7">
-        <v>0.06081197940962649</v>
+        <v>0.10760543980741</v>
       </c>
       <c r="T7">
-        <v>0.06081197940962649</v>
+        <v>0.1391759292753325</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.7882664455901</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H8">
-        <v>25.7882664455901</v>
+        <v>38.891062</v>
       </c>
       <c r="I8">
-        <v>0.5694089892778431</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J8">
-        <v>0.5694089892778431</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>9.865470629309421</v>
+        <v>0.04829733333333333</v>
       </c>
       <c r="N8">
-        <v>9.865470629309421</v>
+        <v>0.144892</v>
       </c>
       <c r="O8">
-        <v>0.1972993815302521</v>
+        <v>0.0008854388369611889</v>
       </c>
       <c r="P8">
-        <v>0.1972993815302521</v>
+        <v>0.0009533760663720083</v>
       </c>
       <c r="Q8">
-        <v>254.4133851997748</v>
+        <v>0.626111528367111</v>
       </c>
       <c r="R8">
-        <v>254.4133851997748</v>
+        <v>5.635003755303999</v>
       </c>
       <c r="S8">
-        <v>0.1123440414222844</v>
+        <v>0.0001668761869325377</v>
       </c>
       <c r="T8">
-        <v>0.1123440414222844</v>
+        <v>0.0002158361922206529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.7882664455901</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H9">
-        <v>25.7882664455901</v>
+        <v>38.891062</v>
       </c>
       <c r="I9">
-        <v>0.5694089892778431</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J9">
-        <v>0.5694089892778431</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.6236749744037</v>
+        <v>11.660829</v>
       </c>
       <c r="N9">
-        <v>28.6236749744037</v>
+        <v>23.321658</v>
       </c>
       <c r="O9">
-        <v>0.5724443953839152</v>
+        <v>0.2137789015493603</v>
       </c>
       <c r="P9">
-        <v>0.5724443953839152</v>
+        <v>0.1534543699121641</v>
       </c>
       <c r="Q9">
-        <v>738.154956891892</v>
+        <v>151.167341203466</v>
       </c>
       <c r="R9">
-        <v>738.154956891892</v>
+        <v>907.0040472207959</v>
       </c>
       <c r="S9">
-        <v>0.3259549845933212</v>
+        <v>0.04029031306060425</v>
       </c>
       <c r="T9">
-        <v>0.3259549845933212</v>
+        <v>0.03474075766082549</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.05547</v>
+      </c>
+      <c r="H10">
+        <v>0.16641</v>
+      </c>
+      <c r="I10">
+        <v>0.0008064276660951866</v>
+      </c>
+      <c r="J10">
+        <v>0.0009687007665519344</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>11.69390033333333</v>
+      </c>
+      <c r="N10">
+        <v>35.081701</v>
+      </c>
+      <c r="O10">
+        <v>0.2143852009224814</v>
+      </c>
+      <c r="P10">
+        <v>0.2308343738855075</v>
+      </c>
+      <c r="Q10">
+        <v>0.6486606514899999</v>
+      </c>
+      <c r="R10">
+        <v>5.837945863409999</v>
+      </c>
+      <c r="S10">
+        <v>0.0001728861572252643</v>
+      </c>
+      <c r="T10">
+        <v>0.0002236094349294269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.05547</v>
+      </c>
+      <c r="H11">
+        <v>0.16641</v>
+      </c>
+      <c r="I11">
+        <v>0.0008064276660951866</v>
+      </c>
+      <c r="J11">
+        <v>0.0009687007665519344</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>31.143184</v>
+      </c>
+      <c r="N11">
+        <v>93.429552</v>
+      </c>
+      <c r="O11">
+        <v>0.5709504586911971</v>
+      </c>
+      <c r="P11">
+        <v>0.6147578801359564</v>
+      </c>
+      <c r="Q11">
+        <v>1.72751241648</v>
+      </c>
+      <c r="R11">
+        <v>15.54761174832</v>
+      </c>
+      <c r="S11">
+        <v>0.0004604302458583183</v>
+      </c>
+      <c r="T11">
+        <v>0.0005955164297315432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.05547</v>
+      </c>
+      <c r="H12">
+        <v>0.16641</v>
+      </c>
+      <c r="I12">
+        <v>0.0008064276660951866</v>
+      </c>
+      <c r="J12">
+        <v>0.0009687007665519344</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04829733333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.144892</v>
+      </c>
+      <c r="O12">
+        <v>0.0008854388369611889</v>
+      </c>
+      <c r="P12">
+        <v>0.0009533760663720083</v>
+      </c>
+      <c r="Q12">
+        <v>0.00267905308</v>
+      </c>
+      <c r="R12">
+        <v>0.02411147772</v>
+      </c>
+      <c r="S12">
+        <v>7.14042374760648E-07</v>
+      </c>
+      <c r="T12">
+        <v>9.235361263068323E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.05547</v>
+      </c>
+      <c r="H13">
+        <v>0.16641</v>
+      </c>
+      <c r="I13">
+        <v>0.0008064276660951866</v>
+      </c>
+      <c r="J13">
+        <v>0.0009687007665519344</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.660829</v>
+      </c>
+      <c r="N13">
+        <v>23.321658</v>
+      </c>
+      <c r="O13">
+        <v>0.2137789015493603</v>
+      </c>
+      <c r="P13">
+        <v>0.1534543699121641</v>
+      </c>
+      <c r="Q13">
+        <v>0.64682618463</v>
+      </c>
+      <c r="R13">
+        <v>3.88095710778</v>
+      </c>
+      <c r="S13">
+        <v>0.0001723972206368433</v>
+      </c>
+      <c r="T13">
+        <v>0.0001486513657646574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J14">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>11.69390033333333</v>
+      </c>
+      <c r="N14">
+        <v>35.081701</v>
+      </c>
+      <c r="O14">
+        <v>0.2143852009224814</v>
+      </c>
+      <c r="P14">
+        <v>0.2308343738855075</v>
+      </c>
+      <c r="Q14">
+        <v>0.3278657816124444</v>
+      </c>
+      <c r="R14">
+        <v>2.950792034512</v>
+      </c>
+      <c r="S14">
+        <v>8.738537621856519E-05</v>
+      </c>
+      <c r="T14">
+        <v>0.0001130234768991284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J15">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>31.143184</v>
+      </c>
+      <c r="N15">
+        <v>93.429552</v>
+      </c>
+      <c r="O15">
+        <v>0.5709504586911971</v>
+      </c>
+      <c r="P15">
+        <v>0.6147578801359564</v>
+      </c>
+      <c r="Q15">
+        <v>0.8731718308693334</v>
+      </c>
+      <c r="R15">
+        <v>7.858546477824</v>
+      </c>
+      <c r="S15">
+        <v>0.000232724648997265</v>
+      </c>
+      <c r="T15">
+        <v>0.0003010040138067398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J16">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04829733333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.144892</v>
+      </c>
+      <c r="O16">
+        <v>0.0008854388369611889</v>
+      </c>
+      <c r="P16">
+        <v>0.0009533760663720083</v>
+      </c>
+      <c r="Q16">
+        <v>0.001354128433777778</v>
+      </c>
+      <c r="R16">
+        <v>0.012187155904</v>
+      </c>
+      <c r="S16">
+        <v>3.609129993742421E-07</v>
+      </c>
+      <c r="T16">
+        <v>4.668016985512906E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J17">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.660829</v>
+      </c>
+      <c r="N17">
+        <v>23.321658</v>
+      </c>
+      <c r="O17">
+        <v>0.2137789015493603</v>
+      </c>
+      <c r="P17">
+        <v>0.1534543699121641</v>
+      </c>
+      <c r="Q17">
+        <v>0.326938549616</v>
+      </c>
+      <c r="R17">
+        <v>1.961631297696</v>
+      </c>
+      <c r="S17">
+        <v>8.713824302749933E-05</v>
+      </c>
+      <c r="T17">
+        <v>7.513589133583839E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>34.5677325</v>
+      </c>
+      <c r="H18">
+        <v>69.135465</v>
+      </c>
+      <c r="I18">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J18">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.69390033333333</v>
+      </c>
+      <c r="N18">
+        <v>35.081701</v>
+      </c>
+      <c r="O18">
+        <v>0.2143852009224814</v>
+      </c>
+      <c r="P18">
+        <v>0.2308343738855075</v>
+      </c>
+      <c r="Q18">
+        <v>404.2316186043274</v>
+      </c>
+      <c r="R18">
+        <v>2425.389711625965</v>
+      </c>
+      <c r="S18">
+        <v>0.1077390019094263</v>
+      </c>
+      <c r="T18">
+        <v>0.09289911821545081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>34.5677325</v>
+      </c>
+      <c r="H19">
+        <v>69.135465</v>
+      </c>
+      <c r="I19">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J19">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>31.143184</v>
+      </c>
+      <c r="N19">
+        <v>93.429552</v>
+      </c>
+      <c r="O19">
+        <v>0.5709504586911971</v>
+      </c>
+      <c r="P19">
+        <v>0.6147578801359564</v>
+      </c>
+      <c r="Q19">
+        <v>1076.54925371028</v>
+      </c>
+      <c r="R19">
+        <v>6459.29552226168</v>
+      </c>
+      <c r="S19">
+        <v>0.2869304051512454</v>
+      </c>
+      <c r="T19">
+        <v>0.2474088413234184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>25.7882664455901</v>
-      </c>
-      <c r="H10">
-        <v>25.7882664455901</v>
-      </c>
-      <c r="I10">
-        <v>0.5694089892778431</v>
-      </c>
-      <c r="J10">
-        <v>0.5694089892778431</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>11.5133964863478</v>
-      </c>
-      <c r="N10">
-        <v>11.5133964863478</v>
-      </c>
-      <c r="O10">
-        <v>0.2302562230858325</v>
-      </c>
-      <c r="P10">
-        <v>0.2302562230858325</v>
-      </c>
-      <c r="Q10">
-        <v>296.9105362836579</v>
-      </c>
-      <c r="R10">
-        <v>296.9105362836579</v>
-      </c>
-      <c r="S10">
-        <v>0.1311099632622375</v>
-      </c>
-      <c r="T10">
-        <v>0.1311099632622375</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>34.5677325</v>
+      </c>
+      <c r="H20">
+        <v>69.135465</v>
+      </c>
+      <c r="I20">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J20">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.04829733333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.144892</v>
+      </c>
+      <c r="O20">
+        <v>0.0008854388369611889</v>
+      </c>
+      <c r="P20">
+        <v>0.0009533760663720083</v>
+      </c>
+      <c r="Q20">
+        <v>1.66952929913</v>
+      </c>
+      <c r="R20">
+        <v>10.01717579478</v>
+      </c>
+      <c r="S20">
+        <v>0.0004449761277157172</v>
+      </c>
+      <c r="T20">
+        <v>0.0003836854728473143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>34.5677325</v>
+      </c>
+      <c r="H21">
+        <v>69.135465</v>
+      </c>
+      <c r="I21">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J21">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.660829</v>
+      </c>
+      <c r="N21">
+        <v>23.321658</v>
+      </c>
+      <c r="O21">
+        <v>0.2137789015493603</v>
+      </c>
+      <c r="P21">
+        <v>0.1534543699121641</v>
+      </c>
+      <c r="Q21">
+        <v>403.0884176002425</v>
+      </c>
+      <c r="R21">
+        <v>1612.35367040097</v>
+      </c>
+      <c r="S21">
+        <v>0.1074343069536304</v>
+      </c>
+      <c r="T21">
+        <v>0.06175759446562509</v>
       </c>
     </row>
   </sheetData>
